--- a/cypress/fixtures/testSuite.xlsx
+++ b/cypress/fixtures/testSuite.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauli\Documents\Training\cypress\cypress-freeformatter-xpath-data-driven\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5218DF9E-D7FF-4365-B3ED-7B36F724A626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C830215-819E-4B86-901E-59BB9769E94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CEB5F3B7-9505-414D-8CC1-0DA784F628BA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CEB5F3B7-9505-414D-8CC1-0DA784F628BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="xPath-tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -270,13 +270,13 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -292,14 +292,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7BCEB55-C334-455F-AC09-9CAC878DA040}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7BCEB55-C334-455F-AC09-9CAC878DA040}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:E13" xr:uid="{D7BCEB55-C334-455F-AC09-9CAC878DA040}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4F4D8429-64BB-4E16-B3A5-67CF6ABE7324}" name="title"/>
-    <tableColumn id="2" xr3:uid="{F2EC7093-E5E4-43A6-B57F-6447637A4864}" name="xPath" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F2EC7093-E5E4-43A6-B57F-6447637A4864}" name="xPath" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{25600C88-5E4F-47E8-BA8F-6C165B60F886}" name="copyPaste"/>
     <tableColumn id="4" xr3:uid="{1FEC2947-EBEA-4F1B-8916-9B08FF4EDA19}" name="includeXmlItemType"/>
-    <tableColumn id="5" xr3:uid="{71390C1D-8124-41CB-8A3D-659598DB4B93}" name="expectedResult" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{71390C1D-8124-41CB-8A3D-659598DB4B93}" name="expectedResult" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/cypress/fixtures/testSuite.xlsx
+++ b/cypress/fixtures/testSuite.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauli\Documents\Training\cypress\cypress-freeformatter-xpath-data-driven\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C830215-819E-4B86-901E-59BB9769E94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF18772-3580-494A-B5E7-D5D1D595972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CEB5F3B7-9505-414D-8CC1-0DA784F628BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CEB5F3B7-9505-414D-8CC1-0DA784F628BA}"/>
   </bookViews>
   <sheets>
     <sheet name="xPath-tests" sheetId="1" r:id="rId1"/>
+    <sheet name="css-tests" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
   <si>
     <t>xPath</t>
   </si>
@@ -69,9 +70,6 @@
   </si>
   <si>
     <t>CustomerID=LETSS</t>
-  </si>
-  <si>
-    <t>relative path, all ShipCity nodes</t>
   </si>
   <si>
     <t>//ShipCity</t>
@@ -101,9 +99,6 @@
 &lt;ShipCity&gt;San Francisco&lt;/ShipCity&gt;</t>
   </si>
   <si>
-    <t>distinct ShipCity values</t>
-  </si>
-  <si>
     <t>distinct-values(//ShipCity)</t>
   </si>
   <si>
@@ -134,9 +129,6 @@
     <t>//ShipInfo[starts-with(@ShippedDate, '1998')]/ShipName</t>
   </si>
   <si>
-    <t>filter by attribute value, start-with fn</t>
-  </si>
-  <si>
     <t>&lt;ShipName&gt;Great Lakes Food Market&lt;/ShipName&gt;
 &lt;ShipName&gt;Great Lakes Food Market&lt;/ShipName&gt;
 &lt;ShipName&gt;Great Lakes Food Market&lt;/ShipName&gt;
@@ -167,9 +159,6 @@
   </si>
   <si>
     <t>sum(//Order/CustomerID[text()=//ContactName[text()='Howard Snyder']/../@CustomerID]/../ShipInfo/Freight)</t>
-  </si>
-  <si>
-    <t>complex example sum</t>
   </si>
   <si>
     <t>Double='1087.61'</t>
@@ -199,13 +188,185 @@
       &lt;/FullAddress&gt;</t>
   </si>
   <si>
-    <t>logical or</t>
-  </si>
-  <si>
     <t>count(//ShipInfo[starts-with(@ShippedDate, '1998') and ./ShipRegion[text()='CA']])</t>
   </si>
   <si>
-    <t>logical and, count()</t>
+    <t>input</t>
+  </si>
+  <si>
+    <t>expectedResultCount</t>
+  </si>
+  <si>
+    <t>&lt;input  type="text" class="form-control" name="my-text" id="my-text-id" myprop="myvalue"&gt;</t>
+  </si>
+  <si>
+    <t>input.form-check-input</t>
+  </si>
+  <si>
+    <t>element name</t>
+  </si>
+  <si>
+    <t>element with class</t>
+  </si>
+  <si>
+    <t>expectedFirstResult</t>
+  </si>
+  <si>
+    <t>&lt;input  class="form-check-input" type="checkbox" name="my-check" id="my-check-1" checked&gt;</t>
+  </si>
+  <si>
+    <t>attribute exists</t>
+  </si>
+  <si>
+    <t>input[type]</t>
+  </si>
+  <si>
+    <t>attribute has value</t>
+  </si>
+  <si>
+    <t>&lt;input type="text" class="form-control" name="my-text" id="my-text-id" myprop="myvalue"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;input type="range" class="form-range" name="my-range" min="0" max="10" step="1" value="5"&gt;</t>
+  </si>
+  <si>
+    <t>input[type=range]</t>
+  </si>
+  <si>
+    <t>attribute value substring</t>
+  </si>
+  <si>
+    <t>[class*=col]</t>
+  </si>
+  <si>
+    <t>&lt;body class="d-flex flex-column h-100"&gt;</t>
+  </si>
+  <si>
+    <t>element with id</t>
+  </si>
+  <si>
+    <t>input#my-radio-1</t>
+  </si>
+  <si>
+    <t>&lt;input class="form-check-input" type="radio" name="my-radio" id="my-radio-1" checked&gt;</t>
+  </si>
+  <si>
+    <t>union of elements</t>
+  </si>
+  <si>
+    <t>&lt;form method="get" action="submitted-form.html"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;select class="form-select" name="my-select"&gt;</t>
+  </si>
+  <si>
+    <t>element descendants</t>
+  </si>
+  <si>
+    <t>form select</t>
+  </si>
+  <si>
+    <t>form,input[type=range],button</t>
+  </si>
+  <si>
+    <t>form&gt;.row&gt;div&gt;label&gt;select</t>
+  </si>
+  <si>
+    <t>&lt;div class="form-check"&gt;</t>
+  </si>
+  <si>
+    <t>following siblings</t>
+  </si>
+  <si>
+    <t>immediately following siblings</t>
+  </si>
+  <si>
+    <t>.form-label+.form-check</t>
+  </si>
+  <si>
+    <t>.form-label~.form-check</t>
+  </si>
+  <si>
+    <t>first-child</t>
+  </si>
+  <si>
+    <t>.form-label:first-child&gt;input</t>
+  </si>
+  <si>
+    <t>.form-label:nth-child(3)&gt;[name]</t>
+  </si>
+  <si>
+    <t>nth-child</t>
+  </si>
+  <si>
+    <t>&lt;textarea class="form-control" name="my-textarea" rows="3"&gt;</t>
+  </si>
+  <si>
+    <t>.form-label:not(:nth-child(3))&gt;[name]</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>distinct node values</t>
+  </si>
+  <si>
+    <t>all attribute values</t>
+  </si>
+  <si>
+    <t>//@CustomerID</t>
+  </si>
+  <si>
+    <t>Attribute='CustomerID=GREAL'
+Attribute='CustomerID=HUNGC'
+Attribute='CustomerID=LAZYK'
+Attribute='CustomerID=LETSS'</t>
+  </si>
+  <si>
+    <t>logical or, parent (..)</t>
+  </si>
+  <si>
+    <t>logical and, count() function</t>
+  </si>
+  <si>
+    <t>last() function, wildcard</t>
+  </si>
+  <si>
+    <t>//Customer[last()]/FullAddress/*</t>
+  </si>
+  <si>
+    <t>Element='&lt;Address&gt;87 Polk St. Suite 5&lt;/Address&gt;'
+Element='&lt;City&gt;San Francisco&lt;/City&gt;'
+Element='&lt;Region&gt;CA&lt;/Region&gt;'
+Element='&lt;PostalCode&gt;94117&lt;/PostalCode&gt;'
+Element='&lt;Country&gt;USA&lt;/Country&gt;'</t>
+  </si>
+  <si>
+    <t>relative path, all nodes by name</t>
+  </si>
+  <si>
+    <t>multiple paths, distinct values</t>
+  </si>
+  <si>
+    <t>distinct-values(//City | //ShipCity)</t>
+  </si>
+  <si>
+    <t>filter by attribute value, start-with function</t>
+  </si>
+  <si>
+    <t>cross-referencing nodes,  sum function</t>
+  </si>
+  <si>
+    <t>multiple attributes</t>
+  </si>
+  <si>
+    <t>input[type=range][name=my-range][class=form-range]</t>
+  </si>
+  <si>
+    <t>cssSelector</t>
+  </si>
+  <si>
+    <t>element immediate descendants</t>
   </si>
 </sst>
 </file>
@@ -247,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -264,11 +425,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -292,14 +475,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7BCEB55-C334-455F-AC09-9CAC878DA040}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:E13" xr:uid="{D7BCEB55-C334-455F-AC09-9CAC878DA040}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7BCEB55-C334-455F-AC09-9CAC878DA040}" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:E16" xr:uid="{D7BCEB55-C334-455F-AC09-9CAC878DA040}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4F4D8429-64BB-4E16-B3A5-67CF6ABE7324}" name="title"/>
-    <tableColumn id="2" xr3:uid="{F2EC7093-E5E4-43A6-B57F-6447637A4864}" name="xPath" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{F2EC7093-E5E4-43A6-B57F-6447637A4864}" name="xPath" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{25600C88-5E4F-47E8-BA8F-6C165B60F886}" name="copyPaste"/>
     <tableColumn id="4" xr3:uid="{1FEC2947-EBEA-4F1B-8916-9B08FF4EDA19}" name="includeXmlItemType"/>
-    <tableColumn id="5" xr3:uid="{71390C1D-8124-41CB-8A3D-659598DB4B93}" name="expectedResult" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{71390C1D-8124-41CB-8A3D-659598DB4B93}" name="expectedResult" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9CB6B68B-D3A8-4C6E-A138-53BD2BCFAF5E}" name="Table1345" displayName="Table1345" ref="A1:D16" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:D16" xr:uid="{D7BCEB55-C334-455F-AC09-9CAC878DA040}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A751469A-680A-46E5-9F9E-D9A11A79611D}" name="title"/>
+    <tableColumn id="2" xr3:uid="{6D3D5870-BEAD-4C36-A2CB-31920C6E1853}" name="cssSelector" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{BEBAD86C-2A96-479C-AE4F-BB393AF26DF7}" name="expectedResultCount" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{F3186F28-F879-4CC5-8DEB-B29BC5E70E7A}" name="expectedFirstResult" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -602,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC17563F-536E-4020-82F9-DD4AA33630A2}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -670,146 +866,146 @@
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
+        <v>74</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -817,25 +1013,76 @@
       <c r="D12" t="b">
         <v>0</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>36</v>
+      <c r="E12" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -846,4 +1093,253 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4075A1-D2E8-497B-9D60-C1225A2D76E8}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="93" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="6">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="7">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>